--- a/data/progresivas.xlsx
+++ b/data/progresivas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\caylloma-archivos\codigo\pruebasCodigo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA851E-2DF6-47F8-ACFF-5A67AA870EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B63F29-7052-4B05-85E1-BEF88B4153E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{EC1102C6-0EC2-4849-B9A2-EE4B468252A1}"/>
+    <workbookView xWindow="888" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{EC1102C6-0EC2-4849-B9A2-EE4B468252A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="30">
   <si>
     <t>alcantarilla de dos ojos</t>
   </si>
@@ -477,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F3E186-4AAF-4FF0-A1C3-95591625CCED}">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,8 +532,8 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F33" si="0">$A$69-A2</f>
-        <v>11050</v>
+        <f>$A$70-A2</f>
+        <v>11070</v>
       </c>
       <c r="G2">
         <v>68</v>
@@ -559,8 +559,8 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
-        <v>10870</v>
+        <f t="shared" ref="F3:F66" si="0">$A$70-A3</f>
+        <v>10890</v>
       </c>
       <c r="G3">
         <v>67</v>
@@ -587,7 +587,7 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>10800</v>
+        <v>10820</v>
       </c>
       <c r="G4">
         <v>66</v>
@@ -614,7 +614,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>10550</v>
+        <v>10570</v>
       </c>
       <c r="G5">
         <v>65</v>
@@ -641,7 +641,7 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>10300</v>
+        <v>10320</v>
       </c>
       <c r="G6">
         <v>64</v>
@@ -665,7 +665,7 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>10080</v>
+        <v>10100</v>
       </c>
       <c r="G7">
         <v>63</v>
@@ -692,7 +692,7 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>10050</v>
+        <v>10070</v>
       </c>
       <c r="G8">
         <v>62</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>9800</v>
+        <v>9820</v>
       </c>
       <c r="G9">
         <v>61</v>
@@ -746,7 +746,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>9630</v>
+        <v>9650</v>
       </c>
       <c r="G10">
         <v>60</v>
@@ -773,7 +773,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>9550</v>
+        <v>9570</v>
       </c>
       <c r="G11">
         <v>59</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>9300</v>
+        <v>9320</v>
       </c>
       <c r="G12">
         <v>58</v>
@@ -827,7 +827,7 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>9050</v>
+        <v>9070</v>
       </c>
       <c r="G13">
         <v>57</v>
@@ -854,7 +854,7 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>8800</v>
+        <v>8820</v>
       </c>
       <c r="G14">
         <v>56</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>8550</v>
+        <v>8570</v>
       </c>
       <c r="G15">
         <v>55</v>
@@ -908,7 +908,7 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>8300</v>
+        <v>8320</v>
       </c>
       <c r="G16">
         <v>54</v>
@@ -935,7 +935,7 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>8230</v>
+        <v>8250</v>
       </c>
       <c r="G17">
         <v>53</v>
@@ -962,7 +962,7 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>8090</v>
+        <v>8110</v>
       </c>
       <c r="G18">
         <v>52</v>
@@ -989,7 +989,7 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>8050</v>
+        <v>8070</v>
       </c>
       <c r="G19">
         <v>51</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>7800</v>
+        <v>7820</v>
       </c>
       <c r="G20">
         <v>50</v>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>7550</v>
+        <v>7570</v>
       </c>
       <c r="G21">
         <v>49</v>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>7300</v>
+        <v>7320</v>
       </c>
       <c r="G22">
         <v>48</v>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>7130</v>
+        <v>7150</v>
       </c>
       <c r="G23">
         <v>47</v>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>7050</v>
+        <v>7070</v>
       </c>
       <c r="G24">
         <v>46</v>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>7020</v>
+        <v>7040</v>
       </c>
       <c r="G25">
         <v>45</v>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>6820</v>
       </c>
       <c r="G26">
         <v>44</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>6550</v>
+        <v>6570</v>
       </c>
       <c r="G27">
         <v>43</v>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>6300</v>
+        <v>6320</v>
       </c>
       <c r="G28">
         <v>42</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>6050</v>
+        <v>6070</v>
       </c>
       <c r="G29">
         <v>41</v>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>6020</v>
+        <v>6040</v>
       </c>
       <c r="G30">
         <v>40</v>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>5850</v>
+        <v>5870</v>
       </c>
       <c r="G31">
         <v>39</v>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>5838</v>
+        <v>5858</v>
       </c>
       <c r="G32">
         <v>38</v>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>5800</v>
+        <v>5820</v>
       </c>
       <c r="G33">
         <v>37</v>
@@ -1390,8 +1390,8 @@
         <v>12</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F69" si="1">$A$69-A34</f>
-        <v>5550</v>
+        <f t="shared" si="0"/>
+        <v>5570</v>
       </c>
       <c r="G34">
         <v>36</v>
@@ -1417,8 +1417,8 @@
         <v>12</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>5300</v>
+        <f t="shared" si="0"/>
+        <v>5320</v>
       </c>
       <c r="G35">
         <v>35</v>
@@ -1444,8 +1444,8 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>5050</v>
+        <f t="shared" si="0"/>
+        <v>5070</v>
       </c>
       <c r="G36">
         <v>34</v>
@@ -1471,8 +1471,8 @@
         <v>19</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>5020</v>
+        <f t="shared" si="0"/>
+        <v>5040</v>
       </c>
       <c r="G37">
         <v>33</v>
@@ -1498,8 +1498,8 @@
         <v>2</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>4860</v>
+        <f t="shared" si="0"/>
+        <v>4880</v>
       </c>
       <c r="G38">
         <v>32</v>
@@ -1525,8 +1525,8 @@
         <v>12</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>4800</v>
+        <f t="shared" si="0"/>
+        <v>4820</v>
       </c>
       <c r="G39">
         <v>31</v>
@@ -1552,8 +1552,8 @@
         <v>12</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>4550</v>
+        <f t="shared" si="0"/>
+        <v>4570</v>
       </c>
       <c r="G40">
         <v>30</v>
@@ -1579,8 +1579,8 @@
         <v>12</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>4300</v>
+        <f t="shared" si="0"/>
+        <v>4320</v>
       </c>
       <c r="G41">
         <v>29</v>
@@ -1606,8 +1606,8 @@
         <v>12</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>4050</v>
+        <f t="shared" si="0"/>
+        <v>4070</v>
       </c>
       <c r="G42">
         <v>28</v>
@@ -1633,8 +1633,8 @@
         <v>18</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>4030</v>
+        <f t="shared" si="0"/>
+        <v>4050</v>
       </c>
       <c r="G43">
         <v>27</v>
@@ -1660,8 +1660,8 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
-        <v>3800</v>
+        <f t="shared" si="0"/>
+        <v>3820</v>
       </c>
       <c r="G44">
         <v>26</v>
@@ -1687,8 +1687,8 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
-        <v>3600</v>
+        <f t="shared" si="0"/>
+        <v>3620</v>
       </c>
       <c r="G45">
         <v>25</v>
@@ -1714,8 +1714,8 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
-        <v>3550</v>
+        <f t="shared" si="0"/>
+        <v>3570</v>
       </c>
       <c r="G46">
         <v>24</v>
@@ -1741,8 +1741,8 @@
         <v>12</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
-        <v>3300</v>
+        <f t="shared" si="0"/>
+        <v>3320</v>
       </c>
       <c r="G47">
         <v>23</v>
@@ -1768,8 +1768,8 @@
         <v>12</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
-        <v>3050</v>
+        <f t="shared" si="0"/>
+        <v>3070</v>
       </c>
       <c r="G48">
         <v>22</v>
@@ -1795,8 +1795,8 @@
         <v>5</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
-        <v>3020</v>
+        <f t="shared" si="0"/>
+        <v>3040</v>
       </c>
       <c r="G49">
         <v>21</v>
@@ -1822,8 +1822,8 @@
         <v>12</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
-        <v>2800</v>
+        <f t="shared" si="0"/>
+        <v>2820</v>
       </c>
       <c r="G50">
         <v>20</v>
@@ -1849,8 +1849,8 @@
         <v>12</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
-        <v>2550</v>
+        <f t="shared" si="0"/>
+        <v>2570</v>
       </c>
       <c r="G51">
         <v>19</v>
@@ -1876,8 +1876,8 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>2470</v>
+        <f t="shared" si="0"/>
+        <v>2490</v>
       </c>
       <c r="G52">
         <v>18</v>
@@ -1903,8 +1903,8 @@
         <v>12</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>2300</v>
+        <f t="shared" si="0"/>
+        <v>2320</v>
       </c>
       <c r="G53">
         <v>17</v>
@@ -1930,8 +1930,8 @@
         <v>6</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
-        <v>2080</v>
+        <f t="shared" si="0"/>
+        <v>2100</v>
       </c>
       <c r="G54">
         <v>16</v>
@@ -1957,8 +1957,8 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
-        <v>2020</v>
+        <f t="shared" si="0"/>
+        <v>2040</v>
       </c>
       <c r="G55">
         <v>15</v>
@@ -1984,8 +1984,8 @@
         <v>7</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
-        <v>1950</v>
+        <f t="shared" si="0"/>
+        <v>1970</v>
       </c>
       <c r="G56">
         <v>14</v>
@@ -2011,8 +2011,8 @@
         <v>12</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
-        <v>1800</v>
+        <f t="shared" si="0"/>
+        <v>1820</v>
       </c>
       <c r="G57">
         <v>13</v>
@@ -2038,8 +2038,8 @@
         <v>12</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
-        <v>1550</v>
+        <f t="shared" si="0"/>
+        <v>1570</v>
       </c>
       <c r="G58">
         <v>12</v>
@@ -2065,8 +2065,8 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
-        <v>1300</v>
+        <f t="shared" si="0"/>
+        <v>1320</v>
       </c>
       <c r="G59">
         <v>11</v>
@@ -2092,8 +2092,8 @@
         <v>24</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
-        <v>1050</v>
+        <f t="shared" si="0"/>
+        <v>1070</v>
       </c>
       <c r="G60">
         <v>10</v>
@@ -2119,8 +2119,8 @@
         <v>23</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
-        <v>1050</v>
+        <f t="shared" si="0"/>
+        <v>1070</v>
       </c>
       <c r="G61">
         <v>9</v>
@@ -2146,8 +2146,8 @@
         <v>8</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
-        <v>910</v>
+        <f t="shared" si="0"/>
+        <v>930</v>
       </c>
       <c r="G62">
         <v>8</v>
@@ -2173,8 +2173,8 @@
         <v>2</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
-        <v>870</v>
+        <f t="shared" si="0"/>
+        <v>890</v>
       </c>
       <c r="G63">
         <v>7</v>
@@ -2200,8 +2200,8 @@
         <v>12</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
-        <v>800</v>
+        <f t="shared" si="0"/>
+        <v>820</v>
       </c>
       <c r="G64">
         <v>6</v>
@@ -2227,8 +2227,8 @@
         <v>12</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
-        <v>550</v>
+        <f t="shared" si="0"/>
+        <v>570</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -2254,8 +2254,8 @@
         <v>12</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>320</v>
       </c>
       <c r="G66">
         <v>4</v>
@@ -2281,8 +2281,8 @@
         <v>12</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" ref="F67:F70" si="1">$A$70-A67</f>
+        <v>70</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F68">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G68">
         <v>2</v>
@@ -2336,12 +2336,39 @@
       </c>
       <c r="F69">
         <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>11070</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
         <v>1</v>
       </c>
     </row>

--- a/data/progresivas.xlsx
+++ b/data/progresivas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\caylloma-archivos\codigo\pruebasCodigo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\caylloma-archivos\codigo\excel-writer\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B63F29-7052-4B05-85E1-BEF88B4153E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EB0AA3-E5E5-4B61-B6C7-70A8172F3D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="888" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{EC1102C6-0EC2-4849-B9A2-EE4B468252A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="32">
   <si>
     <t>alcantarilla de dos ojos</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>descripcion_formal</t>
+  </si>
+  <si>
+    <t>Hito 00</t>
+  </si>
+  <si>
+    <t>Hito 9</t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F3E186-4AAF-4FF0-A1C3-95591625CCED}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="F2">
-        <f>$A$70-A2</f>
+        <f>$A$71-A2</f>
         <v>11070</v>
       </c>
       <c r="G2">
@@ -559,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">$A$70-A3</f>
+        <f t="shared" ref="F3:F67" si="0">$A$71-A3</f>
         <v>10890</v>
       </c>
       <c r="G3">
@@ -654,6 +660,9 @@
       <c r="A7">
         <v>970</v>
       </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
@@ -811,26 +820,26 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2000</v>
-      </c>
-      <c r="B13">
-        <v>5.7</v>
+        <v>1970</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>9070</v>
+        <v>9100</v>
       </c>
       <c r="G13">
-        <v>57</v>
+        <v>57.5</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -838,10 +847,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="B14">
-        <v>4.5999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -854,10 +863,10 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>8820</v>
+        <v>9070</v>
       </c>
       <c r="G14">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -865,10 +874,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2500</v>
+        <v>2250</v>
       </c>
       <c r="B15">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -881,10 +890,10 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>8570</v>
+        <v>8820</v>
       </c>
       <c r="G15">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -892,10 +901,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2750</v>
+        <v>2500</v>
       </c>
       <c r="B16">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -908,10 +917,10 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>8320</v>
+        <v>8570</v>
       </c>
       <c r="G16">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -919,26 +928,26 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2820</v>
+        <v>2750</v>
       </c>
       <c r="B17">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>8250</v>
+        <v>8320</v>
       </c>
       <c r="G17">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -946,26 +955,26 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2960</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
+        <v>2820</v>
+      </c>
+      <c r="B18">
+        <v>5.8</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>8110</v>
+        <v>8250</v>
       </c>
       <c r="G18">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -973,26 +982,26 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>3000</v>
-      </c>
-      <c r="B19">
-        <v>4.7</v>
+        <v>2960</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>8070</v>
+        <v>8110</v>
       </c>
       <c r="G19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1000,10 +1009,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="B20">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -1016,10 +1025,10 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>7820</v>
+        <v>8070</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1027,10 +1036,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="B21">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -1043,10 +1052,10 @@
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>7570</v>
+        <v>7820</v>
       </c>
       <c r="G21">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1054,10 +1063,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="B22">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -1070,10 +1079,10 @@
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>7320</v>
+        <v>7570</v>
       </c>
       <c r="G22">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1081,26 +1090,26 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>3920</v>
+        <v>3750</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>7150</v>
+        <v>7320</v>
       </c>
       <c r="G23">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1108,26 +1117,26 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4000</v>
+        <v>3920</v>
       </c>
       <c r="B24">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>7070</v>
+        <v>7150</v>
       </c>
       <c r="G24">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1135,26 +1144,26 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4030</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
+        <v>4000</v>
+      </c>
+      <c r="B25">
+        <v>4.3</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>7040</v>
+        <v>7070</v>
       </c>
       <c r="G25">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1162,26 +1171,26 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4250</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
+        <v>4030</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>6820</v>
+        <v>7040</v>
       </c>
       <c r="G26">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -1189,7 +1198,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>4500</v>
+        <v>4250</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1205,10 +1214,10 @@
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>6570</v>
+        <v>6820</v>
       </c>
       <c r="G27">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1216,10 +1225,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4750</v>
+        <v>4500</v>
       </c>
       <c r="B28">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -1232,10 +1241,10 @@
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>6320</v>
+        <v>6570</v>
       </c>
       <c r="G28">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -1243,10 +1252,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>5000</v>
+        <v>4750</v>
       </c>
       <c r="B29">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -1259,10 +1268,10 @@
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>6070</v>
+        <v>6320</v>
       </c>
       <c r="G29">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -1270,26 +1279,26 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>5030</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
+        <v>5000</v>
+      </c>
+      <c r="B30">
+        <v>4.4000000000000004</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>6040</v>
+        <v>6070</v>
       </c>
       <c r="G30">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -1297,26 +1306,26 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>5200</v>
-      </c>
-      <c r="B31">
-        <v>6.4</v>
+        <v>5030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>5870</v>
+        <v>6040</v>
       </c>
       <c r="G31">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -1324,23 +1333,26 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>5212</v>
+        <v>5200</v>
+      </c>
+      <c r="B32">
+        <v>6.4</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>5858</v>
+        <v>5870</v>
       </c>
       <c r="G32">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -1348,26 +1360,23 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>5250</v>
-      </c>
-      <c r="B33">
-        <v>4.3</v>
+        <v>5212</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>5820</v>
+        <v>5858</v>
       </c>
       <c r="G33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1375,10 +1384,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>5500</v>
+        <v>5250</v>
       </c>
       <c r="B34">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="C34" t="s">
         <v>12</v>
@@ -1391,10 +1400,10 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>5570</v>
+        <v>5820</v>
       </c>
       <c r="G34">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -1402,10 +1411,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>5750</v>
+        <v>5500</v>
       </c>
       <c r="B35">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C35" t="s">
         <v>12</v>
@@ -1418,10 +1427,10 @@
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>5320</v>
+        <v>5570</v>
       </c>
       <c r="G35">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -1429,10 +1438,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>6000</v>
+        <v>5750</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="C36" t="s">
         <v>12</v>
@@ -1445,10 +1454,10 @@
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>5070</v>
+        <v>5320</v>
       </c>
       <c r="G36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -1456,26 +1465,26 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>6030</v>
-      </c>
-      <c r="B37" t="s">
-        <v>12</v>
+        <v>6000</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>5040</v>
+        <v>5070</v>
       </c>
       <c r="G37">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -1483,26 +1492,26 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>6190</v>
-      </c>
-      <c r="B38">
-        <v>5.6</v>
-      </c>
-      <c r="C38">
-        <v>10</v>
+        <v>6030</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>4880</v>
+        <v>5040</v>
       </c>
       <c r="G38">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -1510,26 +1519,26 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>6250</v>
+        <v>6190</v>
       </c>
       <c r="B39">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C39" t="s">
-        <v>12</v>
+        <v>5.6</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>4820</v>
+        <v>4880</v>
       </c>
       <c r="G39">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1537,10 +1546,10 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="B40">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1553,10 +1562,10 @@
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>4570</v>
+        <v>4820</v>
       </c>
       <c r="G40">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1564,10 +1573,10 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>6750</v>
+        <v>6500</v>
       </c>
       <c r="B41">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1580,10 +1589,10 @@
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>4570</v>
       </c>
       <c r="G41">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -1591,10 +1600,10 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>7000</v>
+        <v>6750</v>
       </c>
       <c r="B42">
-        <v>4.5999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="C42" t="s">
         <v>12</v>
@@ -1607,10 +1616,10 @@
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>4070</v>
+        <v>4320</v>
       </c>
       <c r="G42">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -1618,26 +1627,26 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>7020</v>
-      </c>
-      <c r="B43" t="s">
-        <v>12</v>
+        <v>7000</v>
+      </c>
+      <c r="B43">
+        <v>4.5999999999999996</v>
       </c>
       <c r="C43" t="s">
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>4050</v>
+        <v>4070</v>
       </c>
       <c r="G43">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1645,26 +1654,26 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>7250</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
+        <v>7020</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>3820</v>
+        <v>4050</v>
       </c>
       <c r="G44">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -1672,26 +1681,26 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>7450</v>
+        <v>7250</v>
       </c>
       <c r="B45">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E45" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>3620</v>
+        <v>3820</v>
       </c>
       <c r="G45">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -1699,26 +1708,26 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>7500</v>
+        <v>7450</v>
       </c>
       <c r="B46">
-        <v>4.9000000000000004</v>
+        <v>6.5</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>3570</v>
+        <v>3620</v>
       </c>
       <c r="G46">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -1726,10 +1735,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>7750</v>
+        <v>7500</v>
       </c>
       <c r="B47">
-        <v>5.0999999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C47" t="s">
         <v>12</v>
@@ -1742,10 +1751,10 @@
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>3320</v>
+        <v>3570</v>
       </c>
       <c r="G47">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -1753,10 +1762,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>8000</v>
+        <v>7750</v>
       </c>
       <c r="B48">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -1769,10 +1778,10 @@
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>3070</v>
+        <v>3320</v>
       </c>
       <c r="G48">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -1780,26 +1789,26 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>8030</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
+        <v>8000</v>
+      </c>
+      <c r="B49">
+        <v>5.2</v>
       </c>
       <c r="C49" t="s">
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>3040</v>
+        <v>3070</v>
       </c>
       <c r="G49">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -1807,26 +1816,26 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>8250</v>
-      </c>
-      <c r="B50">
-        <v>5.4</v>
+        <v>8030</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
       </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>2820</v>
+        <v>3040</v>
       </c>
       <c r="G50">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -1834,10 +1843,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>8500</v>
+        <v>8250</v>
       </c>
       <c r="B51">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -1850,10 +1859,10 @@
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>2570</v>
+        <v>2820</v>
       </c>
       <c r="G51">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -1861,26 +1870,26 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>8580</v>
+        <v>8500</v>
       </c>
       <c r="B52">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>10</v>
+        <v>4.2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>2490</v>
+        <v>2570</v>
       </c>
       <c r="G52">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -1888,26 +1897,26 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>8750</v>
+        <v>8580</v>
       </c>
       <c r="B53">
-        <v>4.2</v>
-      </c>
-      <c r="C53" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>2320</v>
+        <v>2490</v>
       </c>
       <c r="G53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -1915,80 +1924,80 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>8970</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
+        <v>8750</v>
+      </c>
+      <c r="B54">
+        <v>4.2</v>
       </c>
       <c r="C54" t="s">
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>2320</v>
       </c>
       <c r="G54">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>9030</v>
-      </c>
-      <c r="B55">
-        <v>6.5</v>
-      </c>
-      <c r="C55">
-        <v>10</v>
+        <v>8970</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
       </c>
       <c r="D55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>2040</v>
+        <v>2100</v>
       </c>
       <c r="G55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>9100</v>
-      </c>
-      <c r="B56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" t="s">
-        <v>12</v>
+        <v>9030</v>
+      </c>
+      <c r="B56">
+        <v>6.5</v>
+      </c>
+      <c r="C56">
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>1970</v>
+        <v>2040</v>
       </c>
       <c r="G56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -1996,26 +2005,26 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>9250</v>
-      </c>
-      <c r="B57">
-        <v>4.4000000000000004</v>
+        <v>9100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>1820</v>
+        <v>1970</v>
       </c>
       <c r="G57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -2023,10 +2032,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>9500</v>
+        <v>9250</v>
       </c>
       <c r="B58">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C58" t="s">
         <v>12</v>
@@ -2039,10 +2048,10 @@
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>1570</v>
+        <v>1820</v>
       </c>
       <c r="G58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -2050,10 +2059,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>9750</v>
+        <v>9500</v>
       </c>
       <c r="B59">
-        <v>4.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -2066,10 +2075,10 @@
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
-        <v>1320</v>
+        <v>1570</v>
       </c>
       <c r="G59">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -2077,26 +2086,26 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>10000</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
+        <v>9750</v>
+      </c>
+      <c r="B60">
+        <v>4.0999999999999996</v>
       </c>
       <c r="C60" t="s">
         <v>12</v>
       </c>
       <c r="D60" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>1070</v>
+        <v>1320</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -2106,24 +2115,24 @@
       <c r="A61">
         <v>10000</v>
       </c>
-      <c r="B61">
-        <v>5.6</v>
+      <c r="B61" t="s">
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
         <v>1070</v>
       </c>
       <c r="G61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -2131,26 +2140,26 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>10140</v>
-      </c>
-      <c r="B62" t="s">
-        <v>12</v>
+        <v>10000</v>
+      </c>
+      <c r="B62">
+        <v>5.6</v>
       </c>
       <c r="C62" t="s">
         <v>12</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
-        <v>930</v>
+        <v>1070</v>
       </c>
       <c r="G62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -2158,26 +2167,26 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>10180</v>
-      </c>
-      <c r="B63">
-        <v>6.6</v>
-      </c>
-      <c r="C63">
-        <v>9.5</v>
+        <v>10140</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
       </c>
       <c r="D63" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="G63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -2185,26 +2194,26 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>10250</v>
+        <v>10180</v>
       </c>
       <c r="B64">
-        <v>4</v>
-      </c>
-      <c r="C64" t="s">
-        <v>12</v>
+        <v>6.6</v>
+      </c>
+      <c r="C64">
+        <v>9.5</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>820</v>
+        <v>890</v>
       </c>
       <c r="G64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -2212,26 +2221,26 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>10500</v>
+        <v>10250</v>
       </c>
       <c r="B65">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E65" t="s">
         <v>12</v>
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
-        <v>570</v>
+        <v>820</v>
       </c>
       <c r="G65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -2239,7 +2248,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>10750</v>
+        <v>10500</v>
       </c>
       <c r="B66">
         <v>4.2</v>
@@ -2248,17 +2257,17 @@
         <v>12</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
         <v>12</v>
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>570</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -2266,10 +2275,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>11000</v>
+        <v>10750</v>
       </c>
       <c r="B67">
-        <v>4.5999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
@@ -2281,11 +2290,11 @@
         <v>12</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F70" si="1">$A$70-A67</f>
-        <v>70</v>
+        <f t="shared" si="0"/>
+        <v>320</v>
       </c>
       <c r="G67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -2293,82 +2302,109 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
+        <v>11000</v>
+      </c>
+      <c r="B68">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ref="F68:F71" si="1">$A$71-A68</f>
+        <v>70</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>11020</v>
       </c>
-      <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
         <v>26</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>9</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G68">
+      <c r="G69">
         <v>2</v>
       </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>11050</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>4</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>10.5</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>27</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>10</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>11070</v>
       </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" t="s">
         <v>17</v>
       </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70">
+      <c r="E71" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G70">
+      <c r="G71">
         <v>0</v>
       </c>
-      <c r="H70">
+      <c r="H71">
         <v>1</v>
       </c>
     </row>
